--- a/thesisdata/個人の推定結果.xlsx
+++ b/thesisdata/個人の推定結果.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="usersdf_result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Accuracy</t>
   </si>
@@ -110,6 +110,16 @@
     <t>被験者5</t>
     <rPh sb="0" eb="3">
       <t>ヒケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>被験者番号</t>
+    <rPh sb="0" eb="3">
+      <t>ヒケンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -279,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +467,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -729,14 +745,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1061,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,56 +2368,58 @@
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E34" s="3"/>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
         <v>1.1124999999999992</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
         <v>0.66249999999999987</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
         <v>0.51607142857142818</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4">
         <v>0.27857142857142814</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4">
         <v>0.50888888888888861</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>0.61570634920634881</v>
       </c>
     </row>
